--- a/Desktop/MYSARAH/DIGESTION/IQC SCAP 050225/Muka Depan.xlsx
+++ b/Desktop/MYSARAH/DIGESTION/IQC SCAP 050225/Muka Depan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang 2.0\Digestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\MYSARAH\DIGESTION\IQC SCAP 050225\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179F4B7-F4A3-420E-B851-53477B150ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB2516-90EB-45E2-BF96-87806DEC504D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{95B9FBCE-B557-4AE4-AE15-05F05E04A3B1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Tarikh:</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>BERAT BERSIH</t>
+  </si>
+  <si>
+    <t>1) AMIR</t>
+  </si>
+  <si>
+    <t>2)MAISARAH</t>
+  </si>
+  <si>
+    <t>2)</t>
   </si>
 </sst>
 </file>
@@ -259,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -281,25 +290,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -314,14 +320,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,6 +696,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="F2">
+            <v>100.06899999999999</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="M5" t="str">
             <v/>
@@ -693,17 +708,29 @@
         </row>
         <row r="6">
           <cell r="M6" t="str">
-            <v/>
+            <v>GH2</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="B8">
+            <v>2025020004</v>
+          </cell>
+          <cell r="C8">
+            <v>1.5049999999999999</v>
+          </cell>
           <cell r="F8">
-            <v>0</v>
+            <v>100.015</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="B9">
+            <v>2025020005</v>
+          </cell>
+          <cell r="C9">
+            <v>1.5069999999999999</v>
+          </cell>
           <cell r="F9">
-            <v>0</v>
+            <v>100.072</v>
           </cell>
         </row>
         <row r="10">
@@ -796,27 +823,37 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="30">
+          <cell r="B30">
+            <v>45698</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>IQC SCAP 050225</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1122,13 +1159,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,7 +1174,7 @@
       </c>
       <c r="B2" s="12">
         <f>[1]Form!$B$30</f>
-        <v>0</v>
+        <v>45698</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1155,20 +1192,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1187,7 +1224,7 @@
       </c>
       <c r="D7" s="5" t="str">
         <f>[1]Form!$M$6</f>
-        <v/>
+        <v>GH2</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>4</v>
@@ -1225,11 +1262,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="15">
+      <c r="C12" s="13" t="str">
         <f>[1]Form!$B$31</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>IQC SCAP 050225</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1254,406 +1291,458 @@
       <c r="H14" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>ROW(A1) &amp; ")"</f>
         <v>1)</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <f>[1]Form!B8</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="13">
+        <v>2025020004</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18">
         <f>[1]Form!C8</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18">
         <f>[1]Form!F8</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="13"/>
+        <v>100.015</v>
+      </c>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="15">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13">
         <f>[1]Form!B9</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="13">
+        <v>2025020005</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18">
         <f>[1]Form!C9</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
         <f>[1]Form!F9</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="13"/>
+        <v>100.072</v>
+      </c>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <f>[1]Form!B10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="13">
+      <c r="C20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18">
         <f>[1]Form!C10</f>
         <v>0</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
         <f>[1]Form!F10</f>
         <v>0</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="15">
+      <c r="B21" s="13">
         <f>[1]Form!B11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="13">
+      <c r="C21" s="13"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18">
         <f>[1]Form!C11</f>
         <v>0</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
         <f>[1]Form!F11</f>
         <v>0</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <f>[1]Form!B12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="13">
+      <c r="C22" s="13"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
         <f>[1]Form!C12</f>
         <v>0</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <f>[1]Form!F12</f>
         <v>0</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <f>[1]Form!B13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="13">
+      <c r="C23" s="13"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18">
         <f>[1]Form!C13</f>
         <v>0</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <f>[1]Form!F13</f>
         <v>0</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <f>[1]Form!B14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="13">
+      <c r="C24" s="13"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18">
         <f>[1]Form!C14</f>
         <v>0</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
         <f>[1]Form!F14</f>
         <v>0</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="15">
+      <c r="B25" s="13">
         <f>[1]Form!B15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13">
+      <c r="C25" s="13"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18">
         <f>[1]Form!C15</f>
         <v>0</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
         <f>[1]Form!F15</f>
         <v>0</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="15">
+      <c r="B26" s="13">
         <f>[1]Form!B16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="13">
+      <c r="C26" s="13"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18">
         <f>[1]Form!C16</f>
         <v>0</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
         <f>[1]Form!F16</f>
         <v>0</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <f>[1]Form!B17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="13">
+      <c r="C27" s="13"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18">
         <f>[1]Form!C17</f>
         <v>0</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
         <f>[1]Form!F17</f>
         <v>0</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="15">
+      <c r="B28" s="13">
         <f>[1]Form!B18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="13">
+      <c r="C28" s="13"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18">
         <f>[1]Form!C18</f>
         <v>0</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
         <f>[1]Form!F18</f>
         <v>0</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="15">
+      <c r="B29" s="13">
         <f>[1]Form!B19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="13">
+      <c r="C29" s="13"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18">
         <f>[1]Form!C19</f>
         <v>0</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18">
         <f>[1]Form!F19</f>
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="15">
+      <c r="B30" s="13">
         <f>[1]Form!B20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="13">
+      <c r="C30" s="13"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18">
         <f>[1]Form!C20</f>
         <v>0</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
         <f>[1]Form!F20</f>
         <v>0</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="15">
+      <c r="B31" s="13">
         <f>[1]Form!B21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="13">
+      <c r="C31" s="13"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18">
         <f>[1]Form!C21</f>
         <v>0</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
         <f>[1]Form!F21</f>
         <v>0</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="24">
+      <c r="B32" s="14">
         <f>[1]Form!B22</f>
         <v>0</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26">
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16">
         <f>[1]Form!C22</f>
         <v>0</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16">
         <f>[1]Form!F22</f>
         <v>0</v>
       </c>
-      <c r="H32" s="26"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
-      <c r="B33" s="15">
+      <c r="B33" s="13">
         <f>[1]Form!B23</f>
         <v>0</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="13">
+      <c r="C33" s="13"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18">
         <f>[1]Form!C23</f>
         <v>0</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18">
         <f>[1]Form!F23</f>
         <v>0</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
-      <c r="B34" s="15">
+      <c r="B34" s="13">
         <f>[1]Form!B24</f>
         <v>0</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="13">
+      <c r="C34" s="13"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18">
         <f>[1]Form!C24</f>
         <v>0</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18">
         <f>[1]Form!F24</f>
         <v>0</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="17">
+      <c r="B35" s="23">
         <f>[1]Form!B25</f>
         <v>0</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="14">
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25">
         <f>[1]Form!C25</f>
         <v>0</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14">
+      <c r="F35" s="25"/>
+      <c r="G35" s="25">
         <f>[1]Form!F25</f>
         <v>0</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="15">
+      <c r="B36" s="13">
         <f>[1]Form!B26</f>
         <v>0</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13">
+      <c r="C36" s="13"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18">
         <f>[1]Form!C26</f>
         <v>0</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13">
+      <c r="F36" s="18"/>
+      <c r="G36" s="18">
         <f>[1]Form!F26</f>
         <v>0</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
-      <c r="B37" s="15">
+      <c r="B37" s="13">
         <f>[1]Form!B27</f>
         <v>0</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="13">
+      <c r="C37" s="13"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18">
         <f>[1]Form!C27</f>
         <v>0</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18">
         <f>[1]Form!F27</f>
         <v>0</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
@@ -1670,56 +1759,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:D37">
     <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
